--- a/dbInittool/excels/Badge.xlsx
+++ b/dbInittool/excels/Badge.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cs20502\Desktop\TF\Hackathon\PickNic\dbInittool\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nokita\chasaji\PickNic\dbInittool\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{641AFB66-0A63-4DD1-AA55-098535EEB20F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26FF6D6-2A1C-4A66-B839-4037322BCB85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3040" yWindow="3040" windowWidth="16200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10710" yWindow="0" windowWidth="10980" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>name</t>
     <phoneticPr fontId="1"/>
@@ -52,6 +52,17 @@
   </si>
   <si>
     <t>badged</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>給食</t>
+    <rPh sb="0" eb="2">
+      <t>キュウショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>school.jpg</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -377,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -418,6 +429,17 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dbInittool/excels/Badge.xlsx
+++ b/dbInittool/excels/Badge.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nokita\chasaji\PickNic\dbInittool\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26FF6D6-2A1C-4A66-B839-4037322BCB85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC3F2BE-9AE6-4B48-AB52-A46470C4F562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10710" yWindow="0" windowWidth="10980" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>name</t>
     <phoneticPr fontId="1"/>
@@ -36,22 +36,6 @@
   </si>
   <si>
     <t>isHave</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>excel</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>pas1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>pas2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>badged</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -62,7 +46,37 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>school.jpg</t>
+    <t>kyushokub</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>朝ごはん</t>
+    <rPh sb="0" eb="1">
+      <t>アサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>morningb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イタリアン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>italyb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>静岡グルメ</t>
+    <rPh sb="0" eb="2">
+      <t>シズオカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shizuokab</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -388,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:C4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -420,13 +434,13 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -437,7 +451,18 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/dbInittool/excels/Badge.xlsx
+++ b/dbInittool/excels/Badge.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nokita\chasaji\PickNic\dbInittool\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/endo/Documents/develop/mydev/PickNic/dbInittool/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC3F2BE-9AE6-4B48-AB52-A46470C4F562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4249148-3715-3940-8009-251C17ABA19F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10710" yWindow="0" windowWidth="10980" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10720" yWindow="860" windowWidth="10980" windowHeight="13780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
   <si>
     <t>name</t>
     <phoneticPr fontId="1"/>
@@ -84,7 +84,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -402,15 +402,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -421,7 +421,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -432,7 +432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -443,7 +443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -451,10 +451,10 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -462,6 +462,105 @@
         <v>10</v>
       </c>
       <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14">
         <v>0</v>
       </c>
     </row>
